--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2489.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2489.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.373829325065147</v>
+        <v>1.438977718353271</v>
       </c>
       <c r="B1">
-        <v>3.468466243895149</v>
+        <v>1.232601284980774</v>
       </c>
       <c r="C1">
-        <v>4.847298617273061</v>
+        <v>4.612543106079102</v>
       </c>
       <c r="D1">
-        <v>3.276653671066339</v>
+        <v>2.177448272705078</v>
       </c>
       <c r="E1">
-        <v>2.104775830521416</v>
+        <v>0.7215542793273926</v>
       </c>
     </row>
   </sheetData>
